--- a/Data/Measured costs.xlsx
+++ b/Data/Measured costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127BD16-3941-4181-A18D-8A6489639764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A19226-DE3E-4FE0-B893-D9EBAC42659B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18072" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="32">
   <si>
     <t>Cut and herbicide</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Control No Treatment</t>
+  </si>
+  <si>
+    <t>SQRTCosts</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA592BD-B5FA-46B4-A345-943D94CE1DC7}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A121" sqref="A98:XFD121"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +473,7 @@
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -492,8 +495,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,8 +522,12 @@
       <c r="G2">
         <v>10.60843933</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>SQRT(G2)</f>
+        <v>3.2570599211558879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,8 +550,12 @@
       <c r="G3">
         <v>6.9962723709999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">SQRT(G3)</f>
+        <v>2.6450467615904261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,8 +578,12 @@
       <c r="G4">
         <v>5.8236062180000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.4132149133469238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -588,8 +606,12 @@
       <c r="G5">
         <v>6.290727178</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.5081322090352414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -612,8 +634,12 @@
       <c r="G6">
         <v>3.0418808909999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.7440988764975454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -636,8 +662,12 @@
       <c r="G7">
         <v>1.897766901</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.3775946069145306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -660,8 +690,12 @@
       <c r="G8">
         <v>1.9771625349999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.4061161171823613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -684,8 +718,12 @@
       <c r="G9">
         <v>1.989097932</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.4103538321995654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -708,8 +746,12 @@
       <c r="G10">
         <v>5.9776182110000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.444916810650211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -732,8 +774,12 @@
       <c r="G11">
         <v>5.6212149619999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.3709101547717912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -756,8 +802,12 @@
       <c r="G12">
         <v>3.2354223370000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.7987279774885363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -780,8 +830,12 @@
       <c r="G13">
         <v>3.7906439230000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.9469576068831083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -804,8 +858,12 @@
       <c r="G14">
         <v>5.368438684</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.316989141968516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -828,8 +886,12 @@
       <c r="G15">
         <v>5.4357703260000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.3314738527377914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -852,8 +914,12 @@
       <c r="G16">
         <v>3.4132060360000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.8474864102341864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -876,8 +942,12 @@
       <c r="G17">
         <v>5.7865807370000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.4055312795721449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -900,8 +970,12 @@
       <c r="G18">
         <v>4.8595555560000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.20443996425396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -924,8 +998,12 @@
       <c r="G19">
         <v>3.2853333330000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.8125488498244675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -948,8 +1026,12 @@
       <c r="G20">
         <v>2.341777778</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.5302868286697104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -972,8 +1054,12 @@
       <c r="G21">
         <v>7.7733333330000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.7880698221170861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -996,8 +1082,12 @@
       <c r="G22">
         <v>5.7671451400000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.4014881094854501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1020,8 +1110,12 @@
       <c r="G23">
         <v>4.3316523980000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>2.0812622126969011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1044,8 +1138,12 @@
       <c r="G24">
         <v>3.6104951070000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.9001302868487731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1068,8 +1166,12 @@
       <c r="G25">
         <v>8.6952770380000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2.9487755150231427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1092,8 +1194,12 @@
       <c r="G26">
         <v>10.777217090000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3.2828672056603203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1116,8 +1222,12 @@
       <c r="G27">
         <v>2.6663210259999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1.6328873280174601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1140,8 +1250,12 @@
       <c r="G28">
         <v>15.48839111</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>3.9355293303442678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1164,8 +1278,12 @@
       <c r="G29">
         <v>16.055272819999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>4.0069031458222195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1188,8 +1306,12 @@
       <c r="G30">
         <v>1.026437265</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1.0131324025022592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1212,8 +1334,12 @@
       <c r="G31">
         <v>0.84461572600000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.91902977427284693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1236,8 +1362,12 @@
       <c r="G32">
         <v>4.2134663249999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>2.052672970787115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1260,8 +1390,12 @@
       <c r="G33">
         <v>1.861158632</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.3642428786693372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1269,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="1">_xlfn.CONCAT(A34,"-",B34)</f>
+        <f t="shared" ref="C34:C65" si="2">_xlfn.CONCAT(A34,"-",B34)</f>
         <v>1-2</v>
       </c>
       <c r="D34" t="s">
@@ -1284,8 +1418,12 @@
       <c r="G34">
         <v>4.6839665909999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>2.1642473497731261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1293,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-5</v>
       </c>
       <c r="D35" t="s">
@@ -1308,8 +1446,12 @@
       <c r="G35">
         <v>1.3734987910000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.1719636474737603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1317,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-2</v>
       </c>
       <c r="D36" t="s">
@@ -1332,8 +1474,12 @@
       <c r="G36">
         <v>0.86652366199999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.93087252725601477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1341,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-8</v>
       </c>
       <c r="D37" t="s">
@@ -1356,8 +1502,12 @@
       <c r="G37">
         <v>2.3261146739999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.5251605404022226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1365,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-7</v>
       </c>
       <c r="D38" t="s">
@@ -1380,8 +1530,12 @@
       <c r="G38">
         <v>1.241294331</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.1141338927615478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1389,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-7</v>
       </c>
       <c r="D39" t="s">
@@ -1404,8 +1558,12 @@
       <c r="G39">
         <v>0.58032448999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.7617903189198455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1413,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-8</v>
       </c>
       <c r="D40" t="s">
@@ -1428,8 +1586,12 @@
       <c r="G40">
         <v>0.21572814300000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0.46446543789608286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1437,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-5</v>
       </c>
       <c r="D41" t="s">
@@ -1452,8 +1614,12 @@
       <c r="G41">
         <v>1.163825909</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1.0788076329911649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1461,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-3</v>
       </c>
       <c r="D42" t="s">
@@ -1476,8 +1642,12 @@
       <c r="G42">
         <v>14.21424889</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>3.7701788936335636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1485,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-8</v>
       </c>
       <c r="D43" t="s">
@@ -1500,8 +1670,12 @@
       <c r="G43">
         <v>17.191533329999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>4.1462673973105018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1509,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-7</v>
       </c>
       <c r="D44" t="s">
@@ -1524,8 +1698,12 @@
       <c r="G44">
         <v>10.01391111</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>3.1644764353681007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1533,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-2</v>
       </c>
       <c r="D45" t="s">
@@ -1548,8 +1726,12 @@
       <c r="G45">
         <v>29.385400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>5.4208301947211002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1557,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-1</v>
       </c>
       <c r="D46" t="s">
@@ -1572,8 +1754,12 @@
       <c r="G46">
         <v>3.8592588029999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>1.9644996317128696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1581,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-2</v>
       </c>
       <c r="D47" t="s">
@@ -1596,8 +1782,12 @@
       <c r="G47">
         <v>1.8974229060000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>1.3774697477621787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1605,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-3</v>
       </c>
       <c r="D48" t="s">
@@ -1620,8 +1810,12 @@
       <c r="G48">
         <v>3.5200752139999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>1.8761863484206465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1629,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-1</v>
       </c>
       <c r="D49" t="s">
@@ -1644,8 +1838,12 @@
       <c r="G49">
         <v>10.225810600000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>3.1977821376697944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1653,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-4</v>
       </c>
       <c r="D50" t="s">
@@ -1668,8 +1866,12 @@
       <c r="G50">
         <v>0.52188444099999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0.72241569819599016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1677,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-6</v>
       </c>
       <c r="D51" t="s">
@@ -1692,8 +1894,12 @@
       <c r="G51">
         <v>0.131614602</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0.36278726824407714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1701,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-6</v>
       </c>
       <c r="D52" t="s">
@@ -1716,8 +1922,12 @@
       <c r="G52">
         <v>1.954715548</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>1.3981114218831059</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1725,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-4</v>
       </c>
       <c r="D53" t="s">
@@ -1740,8 +1950,12 @@
       <c r="G53">
         <v>0.76909396399999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>0.87698002485803517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1749,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-5</v>
       </c>
       <c r="D54" t="s">
@@ -1764,8 +1978,12 @@
       <c r="G54">
         <v>1.4093651E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0.11871668374748345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1773,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-3</v>
       </c>
       <c r="D55" t="s">
@@ -1788,8 +2006,12 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1797,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-4</v>
       </c>
       <c r="D56" t="s">
@@ -1812,8 +2034,12 @@
       <c r="G56">
         <v>0.48692317200000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0.69779880481410972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1821,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-6</v>
       </c>
       <c r="D57" t="s">
@@ -1836,8 +2062,12 @@
       <c r="G57">
         <v>0.68734031500000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>0.82905989831857141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1845,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-2</v>
       </c>
       <c r="D58" t="s">
@@ -1860,8 +2090,12 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1869,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-5</v>
       </c>
       <c r="D59" t="s">
@@ -1884,8 +2118,12 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1893,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-2</v>
       </c>
       <c r="D60" t="s">
@@ -1908,8 +2146,12 @@
       <c r="G60">
         <v>0.12894730099999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>0.35909232935277241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1917,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-8</v>
       </c>
       <c r="D61" t="s">
@@ -1932,8 +2174,12 @@
       <c r="G61">
         <v>0.64303110699999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>0.80189220410227213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1941,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1-7</v>
       </c>
       <c r="D62" t="s">
@@ -1956,8 +2202,12 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1965,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2-7</v>
       </c>
       <c r="D63" t="s">
@@ -1980,8 +2230,12 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1989,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3-8</v>
       </c>
       <c r="D64" t="s">
@@ -2004,8 +2258,12 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2013,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4-5</v>
       </c>
       <c r="D65" t="s">
@@ -2028,8 +2286,12 @@
       <c r="G65">
         <v>1.0622539E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>0.10306570234563969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2037,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="2">_xlfn.CONCAT(A66,"-",B66)</f>
+        <f t="shared" ref="C66:C97" si="3">_xlfn.CONCAT(A66,"-",B66)</f>
         <v>1-3</v>
       </c>
       <c r="D66" t="s">
@@ -2052,8 +2314,12 @@
       <c r="G66">
         <v>1.3480133329999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>1.1610397637462724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2061,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-8</v>
       </c>
       <c r="D67" t="s">
@@ -2076,8 +2342,12 @@
       <c r="G67">
         <v>1.0592266669999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f t="shared" ref="H67:H121" si="4">SQRT(G67)</f>
+        <v>1.0291873818697934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2085,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-7</v>
       </c>
       <c r="D68" t="s">
@@ -2100,8 +2370,12 @@
       <c r="G68">
         <v>3.8604622220000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>1.9648058993193196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2109,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-2</v>
       </c>
       <c r="D69" t="s">
@@ -2124,8 +2398,12 @@
       <c r="G69">
         <v>3.6687688889999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>1.915403061760109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2133,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-1</v>
       </c>
       <c r="D70" t="s">
@@ -2148,8 +2426,12 @@
       <c r="G70">
         <v>7.1084443999999997E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>0.26661666114479793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2157,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-2</v>
       </c>
       <c r="D71" t="s">
@@ -2172,8 +2454,12 @@
       <c r="G71">
         <v>0.13180444399999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>0.36304881765404495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2181,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-3</v>
       </c>
       <c r="D72" t="s">
@@ -2196,8 +2482,12 @@
       <c r="G72">
         <v>0.81830222200000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>0.90460058699958845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2205,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-1</v>
       </c>
       <c r="D73" t="s">
@@ -2220,8 +2510,12 @@
       <c r="G73">
         <v>0.194235556</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>0.44072163096448985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2229,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-4</v>
       </c>
       <c r="D74" t="s">
@@ -2244,8 +2538,12 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2253,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-6</v>
       </c>
       <c r="D75" t="s">
@@ -2268,8 +2566,12 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2277,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-6</v>
       </c>
       <c r="D76" t="s">
@@ -2292,8 +2594,12 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2301,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-4</v>
       </c>
       <c r="D77" t="s">
@@ -2316,8 +2622,12 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2325,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-5</v>
       </c>
       <c r="D78" t="s">
@@ -2340,8 +2650,12 @@
       <c r="G78">
         <v>2.4800316999999999E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>0.15748116395302644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2349,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-3</v>
       </c>
       <c r="D79" t="s">
@@ -2364,8 +2678,12 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2373,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-4</v>
       </c>
       <c r="D80" t="s">
@@ -2388,8 +2706,12 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2397,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-6</v>
       </c>
       <c r="D81" t="s">
@@ -2412,8 +2734,12 @@
       <c r="G81">
         <v>1.1544603000000001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <f t="shared" si="4"/>
+        <v>0.10744581425071896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2421,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-2</v>
       </c>
       <c r="D82" t="s">
@@ -2436,8 +2762,12 @@
       <c r="G82">
         <v>0.15244126899999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f t="shared" si="4"/>
+        <v>0.39043727921396032</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2445,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-5</v>
       </c>
       <c r="D83" t="s">
@@ -2460,8 +2790,12 @@
       <c r="G83">
         <v>1.4135714000000001E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f t="shared" si="4"/>
+        <v>0.11889370883272168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2469,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-2</v>
       </c>
       <c r="D84" t="s">
@@ -2484,8 +2818,12 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2493,7 +2831,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-8</v>
       </c>
       <c r="D85" t="s">
@@ -2508,8 +2846,12 @@
       <c r="G85">
         <v>0.576303487</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f t="shared" si="4"/>
+        <v>0.7591465517276621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2517,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-7</v>
       </c>
       <c r="D86" t="s">
@@ -2532,8 +2874,12 @@
       <c r="G86">
         <v>9.3502856999999995E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f t="shared" si="4"/>
+        <v>0.30578236868727404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2541,7 +2887,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-7</v>
       </c>
       <c r="D87" t="s">
@@ -2556,8 +2902,12 @@
       <c r="G87">
         <v>8.0778094999999994E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f t="shared" si="4"/>
+        <v>0.28421487469870399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2565,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-8</v>
       </c>
       <c r="D88" t="s">
@@ -2580,8 +2930,12 @@
       <c r="G88">
         <v>6.8023809999999997E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f t="shared" si="4"/>
+        <v>8.247654818189229E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2589,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-5</v>
       </c>
       <c r="D89" t="s">
@@ -2604,8 +2958,12 @@
       <c r="G89">
         <v>1.7809206000000001E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f t="shared" si="4"/>
+        <v>0.13345113712516654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2613,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-3</v>
       </c>
       <c r="D90" t="s">
@@ -2628,8 +2986,12 @@
       <c r="G90">
         <v>6.0768889E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f t="shared" si="4"/>
+        <v>0.2465134661636155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2637,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-8</v>
       </c>
       <c r="D91" t="s">
@@ -2652,8 +3014,12 @@
       <c r="G91">
         <v>8.0275555999999998E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f t="shared" si="4"/>
+        <v>0.2833294125218912</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2661,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-7</v>
       </c>
       <c r="D92" t="s">
@@ -2676,8 +3042,12 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2685,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-2</v>
       </c>
       <c r="D93" t="s">
@@ -2700,8 +3070,12 @@
       <c r="G93">
         <v>0.117137778</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f t="shared" si="4"/>
+        <v>0.34225396710629957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2709,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1-1</v>
       </c>
       <c r="D94" t="s">
@@ -2724,8 +3098,12 @@
       <c r="G94">
         <v>3.5011269999999997E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f t="shared" si="4"/>
+        <v>0.18711298725636336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2733,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2-2</v>
       </c>
       <c r="D95" t="s">
@@ -2748,8 +3126,12 @@
       <c r="G95">
         <v>0.431309204</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <f t="shared" si="4"/>
+        <v>0.6567413524364063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2757,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3-3</v>
       </c>
       <c r="D96" t="s">
@@ -2772,8 +3154,12 @@
       <c r="G96">
         <v>0.117591428</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f t="shared" si="4"/>
+        <v>0.34291606553207737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2781,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4-1</v>
       </c>
       <c r="D97" t="s">
@@ -2796,8 +3182,12 @@
       <c r="G97">
         <v>0.30764190299999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f t="shared" si="4"/>
+        <v>0.55465476018871418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2805,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C129" si="3">_xlfn.CONCAT(A98,"-",B98)</f>
+        <f t="shared" ref="C98:C121" si="5">_xlfn.CONCAT(A98,"-",B98)</f>
         <v>1-4</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2820,8 +3210,12 @@
       <c r="G98">
         <v>0.95429380306009204</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f t="shared" si="4"/>
+        <v>0.97687962567559572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2829,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-6</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2844,8 +3238,12 @@
       <c r="G99">
         <v>2.0784728958711366E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f t="shared" si="4"/>
+        <v>0.14416909848754472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2853,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-6</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2868,8 +3266,12 @@
       <c r="G100">
         <v>0.63309261644865988</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f t="shared" si="4"/>
+        <v>0.79567117356899386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2877,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-4</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2892,8 +3294,12 @@
       <c r="G101">
         <v>1.1059600715682019</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <f t="shared" si="4"/>
+        <v>1.0516463624090571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2901,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1-5</v>
       </c>
       <c r="D102" t="s">
@@ -2916,8 +3322,12 @@
       <c r="G102">
         <v>1.9777587289587113</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <f t="shared" si="4"/>
+        <v>1.4063281014609326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2925,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-3</v>
       </c>
       <c r="D103" t="s">
@@ -2940,8 +3350,12 @@
       <c r="G103">
         <v>3.9014842070856015</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <f t="shared" si="4"/>
+        <v>1.9752175088039297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2949,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-4</v>
       </c>
       <c r="D104" t="s">
@@ -2964,8 +3378,12 @@
       <c r="G104">
         <v>0.8109487132461306</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <f t="shared" si="4"/>
+        <v>0.9005269086740999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2973,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-6</v>
       </c>
       <c r="D105" t="s">
@@ -2988,8 +3406,12 @@
       <c r="G105">
         <v>0.5261060608931043</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <f t="shared" si="4"/>
+        <v>0.72533169025839783</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2997,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1-2</v>
       </c>
       <c r="D106" t="s">
@@ -3012,8 +3434,12 @@
       <c r="G106">
         <v>0.47629149833635759</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <f t="shared" si="4"/>
+        <v>0.6901387529594013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3021,7 +3447,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-5</v>
       </c>
       <c r="D107" t="s">
@@ -3036,8 +3462,12 @@
       <c r="G107">
         <v>3.5251554511809333</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <f t="shared" si="4"/>
+        <v>1.8775397335824702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3045,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-2</v>
       </c>
       <c r="D108" t="s">
@@ -3060,8 +3490,12 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3069,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-8</v>
       </c>
       <c r="D109" t="s">
@@ -3084,8 +3518,12 @@
       <c r="G109">
         <v>3.6853638566230651</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <f t="shared" si="4"/>
+        <v>1.9197301520325885</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3093,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1-7</v>
       </c>
       <c r="D110" t="s">
@@ -3108,8 +3546,12 @@
       <c r="G110">
         <v>0.13179369781268901</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <f t="shared" si="4"/>
+        <v>0.36303401743182279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3117,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-7</v>
       </c>
       <c r="D111" t="s">
@@ -3132,8 +3574,12 @@
       <c r="G111">
         <v>3.4046264755904678</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <f t="shared" si="4"/>
+        <v>1.8451629943152632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3141,7 +3587,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-8</v>
       </c>
       <c r="D112" t="s">
@@ -3156,8 +3602,12 @@
       <c r="G112">
         <v>6.8420206089310431E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <f t="shared" si="4"/>
+        <v>0.26157256371666815</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3165,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-5</v>
       </c>
       <c r="D113" t="s">
@@ -3180,8 +3630,12 @@
       <c r="G113">
         <v>3.3846240949782</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <f t="shared" si="4"/>
+        <v>1.839734789304752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3189,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1-3</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -3204,8 +3658,12 @@
       <c r="G114">
         <v>0.95608711111111122</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <f t="shared" si="4"/>
+        <v>0.97779707051673626</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -3213,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-8</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -3228,8 +3686,12 @@
       <c r="G115">
         <v>2.1874594444444444</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <f t="shared" si="4"/>
+        <v>1.479006235431225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3237,7 +3699,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-7</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3252,8 +3714,12 @@
       <c r="G116">
         <v>1.4044393888888891</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <f t="shared" si="4"/>
+        <v>1.1850904559943469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
@@ -3261,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-2</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -3276,8 +3742,12 @@
       <c r="G117">
         <v>8.8270257777777772</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <f t="shared" si="4"/>
+        <v>2.9710310967369185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3285,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1-1</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -3300,8 +3770,12 @@
       <c r="G118">
         <v>6.1109333333333342E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <f t="shared" si="4"/>
+        <v>0.24720302047777115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3309,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2-2</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3324,8 +3798,12 @@
       <c r="G119">
         <v>0.14512391111111114</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <f t="shared" si="4"/>
+        <v>0.38095132380805707</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3333,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3-3</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3348,8 +3826,12 @@
       <c r="G120">
         <v>3.6109161666666667</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <f t="shared" si="4"/>
+        <v>1.9002410811964536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>4</v>
       </c>
@@ -3357,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4-1</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -3372,26 +3854,30 @@
       <c r="G121">
         <v>3.9745529666666681</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <f t="shared" si="4"/>
+        <v>1.9936280913617435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">

--- a/Data/Measured costs.xlsx
+++ b/Data/Measured costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A19226-DE3E-4FE0-B893-D9EBAC42659B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220616B-4E2D-4279-88C4-9B15B3FA1CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18072" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA592BD-B5FA-46B4-A345-943D94CE1DC7}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H121"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E61" sqref="E42:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C33" si="0">_xlfn.CONCAT(A2,"-",B2)</f>
+        <f>_xlfn.CONCAT(A2,"-",B2)</f>
         <v>1-4</v>
       </c>
       <c r="D2" t="s">
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A3,"-",B3)</f>
         <v>2-6</v>
       </c>
       <c r="D3" t="s">
@@ -551,7 +551,7 @@
         <v>6.9962723709999999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">SQRT(G3)</f>
+        <f>SQRT(G3)</f>
         <v>2.6450467615904261</v>
       </c>
     </row>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A4,"-",B4)</f>
         <v>3-6</v>
       </c>
       <c r="D4" t="s">
@@ -579,7 +579,7 @@
         <v>5.8236062180000001</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f>SQRT(G4)</f>
         <v>2.4132149133469238</v>
       </c>
     </row>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A5,"-",B5)</f>
         <v>4-4</v>
       </c>
       <c r="D5" t="s">
@@ -607,7 +607,7 @@
         <v>6.290727178</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f>SQRT(G5)</f>
         <v>2.5081322090352414</v>
       </c>
     </row>
@@ -616,27 +616,27 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
+        <f>_xlfn.CONCAT(A6,"-",B6)</f>
+        <v>1-4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G6">
-        <v>3.0418808909999999</v>
+        <v>10.777217090000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1.7440988764975454</v>
+        <f>SQRT(G6)</f>
+        <v>3.2828672056603203</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -644,27 +644,27 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>2-3</v>
+        <f>_xlfn.CONCAT(A7,"-",B7)</f>
+        <v>2-6</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G7">
-        <v>1.897766901</v>
+        <v>2.6663210259999999</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1.3775946069145306</v>
+        <f>SQRT(G7)</f>
+        <v>1.6328873280174601</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -672,27 +672,27 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>3-4</v>
+        <f>_xlfn.CONCAT(A8,"-",B8)</f>
+        <v>3-6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G8">
-        <v>1.9771625349999999</v>
+        <v>15.48839111</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>1.4061161171823613</v>
+        <f>SQRT(G8)</f>
+        <v>3.9355293303442678</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -700,27 +700,27 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>4-6</v>
+        <f>_xlfn.CONCAT(A9,"-",B9)</f>
+        <v>4-4</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G9">
-        <v>1.989097932</v>
+        <v>16.055272819999999</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>1.4103538321995654</v>
+        <f>SQRT(G9)</f>
+        <v>4.0069031458222195</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -728,27 +728,27 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>1-2</v>
+        <f>_xlfn.CONCAT(A10,"-",B10)</f>
+        <v>1-4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G10">
-        <v>5.9776182110000002</v>
+        <v>0.52188444099999998</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>2.444916810650211</v>
+        <f>SQRT(G10)</f>
+        <v>0.72241569819599016</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -756,27 +756,27 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>2-5</v>
+        <f>_xlfn.CONCAT(A11,"-",B11)</f>
+        <v>2-6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G11">
-        <v>5.6212149619999998</v>
+        <v>0.131614602</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>2.3709101547717912</v>
+        <f>SQRT(G11)</f>
+        <v>0.36278726824407714</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,27 +784,27 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>3-2</v>
+        <f>_xlfn.CONCAT(A12,"-",B12)</f>
+        <v>3-6</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G12">
-        <v>3.2354223370000001</v>
+        <v>1.954715548</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>1.7987279774885363</v>
+        <f>SQRT(G12)</f>
+        <v>1.3981114218831059</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -812,27 +812,27 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>4-8</v>
+        <f>_xlfn.CONCAT(A13,"-",B13)</f>
+        <v>4-4</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G13">
-        <v>3.7906439230000002</v>
+        <v>0.76909396399999996</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1.9469576068831083</v>
+        <f>SQRT(G13)</f>
+        <v>0.87698002485803517</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -840,27 +840,27 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>1-7</v>
+        <f>_xlfn.CONCAT(A14,"-",B14)</f>
+        <v>1-4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G14">
-        <v>5.368438684</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>2.316989141968516</v>
+        <f>SQRT(G14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -868,27 +868,27 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>2-7</v>
+        <f>_xlfn.CONCAT(A15,"-",B15)</f>
+        <v>2-6</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G15">
-        <v>5.4357703260000001</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>2.3314738527377914</v>
+        <f>SQRT(G15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,27 +896,27 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>3-8</v>
+        <f>_xlfn.CONCAT(A16,"-",B16)</f>
+        <v>3-6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G16">
-        <v>3.4132060360000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1.8474864102341864</v>
+        <f>SQRT(G16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -924,27 +924,27 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>4-5</v>
+        <f>_xlfn.CONCAT(A17,"-",B17)</f>
+        <v>4-4</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G17">
-        <v>5.7865807370000004</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>2.4055312795721449</v>
+        <f>SQRT(G17)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -952,27 +952,27 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>1-3</v>
+        <f>_xlfn.CONCAT(A18,"-",B18)</f>
+        <v>1-4</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G18">
-        <v>4.8595555560000001</v>
+        <v>0.95429380306009204</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>2.20443996425396</v>
+        <f>SQRT(G18)</f>
+        <v>0.97687962567559572</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -980,27 +980,27 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>2-8</v>
+        <f>_xlfn.CONCAT(A19,"-",B19)</f>
+        <v>2-6</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G19">
-        <v>3.2853333330000001</v>
+        <v>2.0784728958711366E-2</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>1.8125488498244675</v>
+        <f>SQRT(G19)</f>
+        <v>0.14416909848754472</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1008,27 +1008,27 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>3-7</v>
+        <f>_xlfn.CONCAT(A20,"-",B20)</f>
+        <v>3-6</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G20">
-        <v>2.341777778</v>
+        <v>0.63309261644865988</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1.5302868286697104</v>
+        <f>SQRT(G20)</f>
+        <v>0.79567117356899386</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1036,27 +1036,27 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>4-2</v>
+        <f>_xlfn.CONCAT(A21,"-",B21)</f>
+        <v>4-4</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G21">
-        <v>7.7733333330000001</v>
+        <v>1.1059600715682019</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>2.7880698221170861</v>
+        <f>SQRT(G21)</f>
+        <v>1.0516463624090571</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1064,27 +1064,27 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>1-1</v>
+        <f>_xlfn.CONCAT(A22,"-",B22)</f>
+        <v>1-5</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>2018</v>
       </c>
       <c r="G22">
-        <v>5.7671451400000002</v>
+        <v>3.0418808909999999</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>2.4014881094854501</v>
+        <f>SQRT(G22)</f>
+        <v>1.7440988764975454</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1092,27 +1092,27 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>2-2</v>
+        <f>_xlfn.CONCAT(A23,"-",B23)</f>
+        <v>2-3</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23">
-        <v>4.3316523980000001</v>
+        <v>1.897766901</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>2.0812622126969011</v>
+        <f>SQRT(G23)</f>
+        <v>1.3775946069145306</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,27 +1120,27 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>3-3</v>
+        <f>_xlfn.CONCAT(A24,"-",B24)</f>
+        <v>3-4</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>2018</v>
       </c>
       <c r="G24">
-        <v>3.6104951070000002</v>
+        <v>1.9771625349999999</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>1.9001302868487731</v>
+        <f>SQRT(G24)</f>
+        <v>1.4061161171823613</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1148,27 +1148,27 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>4-1</v>
+        <f>_xlfn.CONCAT(A25,"-",B25)</f>
+        <v>4-6</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>2018</v>
       </c>
       <c r="G25">
-        <v>8.6952770380000004</v>
+        <v>1.989097932</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>2.9487755150231427</v>
+        <f>SQRT(G25)</f>
+        <v>1.4103538321995654</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1176,27 +1176,27 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>1-4</v>
+        <f>_xlfn.CONCAT(A26,"-",B26)</f>
+        <v>1-5</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>2019</v>
       </c>
       <c r="G26">
-        <v>10.777217090000001</v>
+        <v>1.026437265</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>3.2828672056603203</v>
+        <f>SQRT(G26)</f>
+        <v>1.0131324025022592</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,27 +1204,27 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>2-6</v>
+        <f>_xlfn.CONCAT(A27,"-",B27)</f>
+        <v>2-3</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>2019</v>
       </c>
       <c r="G27">
-        <v>2.6663210259999999</v>
+        <v>0.84461572600000001</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>1.6328873280174601</v>
+        <f>SQRT(G27)</f>
+        <v>0.91902977427284693</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1232,27 +1232,27 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>3-6</v>
+        <f>_xlfn.CONCAT(A28,"-",B28)</f>
+        <v>3-4</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
       <c r="G28">
-        <v>15.48839111</v>
+        <v>4.2134663249999997</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
-        <v>3.9355293303442678</v>
+        <f>SQRT(G28)</f>
+        <v>2.052672970787115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1260,27 +1260,27 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>4-4</v>
+        <f>_xlfn.CONCAT(A29,"-",B29)</f>
+        <v>4-6</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>2019</v>
       </c>
       <c r="G29">
-        <v>16.055272819999999</v>
+        <v>1.861158632</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
-        <v>4.0069031458222195</v>
+        <f>SQRT(G29)</f>
+        <v>1.3642428786693372</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A30,"-",B30)</f>
         <v>1-5</v>
       </c>
       <c r="D30" t="s">
@@ -1301,14 +1301,14 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G30">
-        <v>1.026437265</v>
+        <v>1.4093651E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>1.0131324025022592</v>
+        <f>SQRT(G30)</f>
+        <v>0.11871668374748345</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A31,"-",B31)</f>
         <v>2-3</v>
       </c>
       <c r="D31" t="s">
@@ -1329,14 +1329,14 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G31">
-        <v>0.84461572600000001</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
-        <v>0.91902977427284693</v>
+        <f>SQRT(G31)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A32,"-",B32)</f>
         <v>3-4</v>
       </c>
       <c r="D32" t="s">
@@ -1357,14 +1357,14 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G32">
-        <v>4.2134663249999997</v>
+        <v>0.48692317200000002</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
-        <v>2.052672970787115</v>
+        <f>SQRT(G32)</f>
+        <v>0.69779880481410972</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A33,"-",B33)</f>
         <v>4-6</v>
       </c>
       <c r="D33" t="s">
@@ -1385,14 +1385,14 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G33">
-        <v>1.861158632</v>
+        <v>0.68734031500000004</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
-        <v>1.3642428786693372</v>
+        <f>SQRT(G33)</f>
+        <v>0.82905989831857141</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1400,27 +1400,27 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="2">_xlfn.CONCAT(A34,"-",B34)</f>
-        <v>1-2</v>
+        <f>_xlfn.CONCAT(A34,"-",B34)</f>
+        <v>1-5</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G34">
-        <v>4.6839665909999999</v>
+        <v>2.4800316999999999E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>2.1642473497731261</v>
+        <f>SQRT(G34)</f>
+        <v>0.15748116395302644</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1428,27 +1428,27 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
-        <v>2-5</v>
+        <f>_xlfn.CONCAT(A35,"-",B35)</f>
+        <v>2-3</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G35">
-        <v>1.3734987910000001</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1.1719636474737603</v>
+        <f>SQRT(G35)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1456,27 +1456,27 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
-        <v>3-2</v>
+        <f>_xlfn.CONCAT(A36,"-",B36)</f>
+        <v>3-4</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G36">
-        <v>0.86652366199999997</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>0.93087252725601477</v>
+        <f>SQRT(G36)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,27 +1484,27 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
-        <v>4-8</v>
+        <f>_xlfn.CONCAT(A37,"-",B37)</f>
+        <v>4-6</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G37">
-        <v>2.3261146739999998</v>
+        <v>1.1544603000000001E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>1.5251605404022226</v>
+        <f>SQRT(G37)</f>
+        <v>0.10744581425071896</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1512,27 +1512,27 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
-        <v>1-7</v>
+        <f>_xlfn.CONCAT(A38,"-",B38)</f>
+        <v>1-5</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G38">
-        <v>1.241294331</v>
+        <v>1.9777587289587113</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
-        <v>1.1141338927615478</v>
+        <f>SQRT(G38)</f>
+        <v>1.4063281014609326</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1540,27 +1540,27 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
-        <v>2-7</v>
+        <f>_xlfn.CONCAT(A39,"-",B39)</f>
+        <v>2-3</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G39">
-        <v>0.58032448999999997</v>
+        <v>3.9014842070856015</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
-        <v>0.7617903189198455</v>
+        <f>SQRT(G39)</f>
+        <v>1.9752175088039297</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1568,27 +1568,27 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
-        <v>3-8</v>
+        <f>_xlfn.CONCAT(A40,"-",B40)</f>
+        <v>3-4</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G40">
-        <v>0.21572814300000001</v>
+        <v>0.8109487132461306</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
-        <v>0.46446543789608286</v>
+        <f>SQRT(G40)</f>
+        <v>0.9005269086740999</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,27 +1596,27 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
-        <v>4-5</v>
+        <f>_xlfn.CONCAT(A41,"-",B41)</f>
+        <v>4-6</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G41">
-        <v>1.163825909</v>
+        <v>0.5261060608931043</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
-        <v>1.0788076329911649</v>
+        <f>SQRT(G41)</f>
+        <v>0.72533169025839783</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1624,27 +1624,27 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="2"/>
-        <v>1-3</v>
+        <f>_xlfn.CONCAT(A42,"-",B42)</f>
+        <v>1-2</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G42">
-        <v>14.21424889</v>
+        <v>5.9776182110000002</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
-        <v>3.7701788936335636</v>
+        <f>SQRT(G42)</f>
+        <v>2.444916810650211</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1652,27 +1652,27 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="2"/>
-        <v>2-8</v>
+        <f>_xlfn.CONCAT(A43,"-",B43)</f>
+        <v>2-5</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G43">
-        <v>17.191533329999999</v>
+        <v>5.6212149619999998</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
-        <v>4.1462673973105018</v>
+        <f>SQRT(G43)</f>
+        <v>2.3709101547717912</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1680,27 +1680,27 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="2"/>
-        <v>3-7</v>
+        <f>_xlfn.CONCAT(A44,"-",B44)</f>
+        <v>3-2</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G44">
-        <v>10.01391111</v>
+        <v>3.2354223370000001</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
-        <v>3.1644764353681007</v>
+        <f>SQRT(G44)</f>
+        <v>1.7987279774885363</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1708,27 +1708,27 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="2"/>
-        <v>4-2</v>
+        <f>_xlfn.CONCAT(A45,"-",B45)</f>
+        <v>4-8</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G45">
-        <v>29.385400000000001</v>
+        <v>3.7906439230000002</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
-        <v>5.4208301947211002</v>
+        <f>SQRT(G45)</f>
+        <v>1.9469576068831083</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1736,27 +1736,27 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1</v>
+        <f>_xlfn.CONCAT(A46,"-",B46)</f>
+        <v>1-2</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>2019</v>
       </c>
       <c r="G46">
-        <v>3.8592588029999999</v>
+        <v>4.6839665909999999</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>1.9644996317128696</v>
+        <f>SQRT(G46)</f>
+        <v>2.1642473497731261</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1764,27 +1764,27 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="2"/>
-        <v>2-2</v>
+        <f>_xlfn.CONCAT(A47,"-",B47)</f>
+        <v>2-5</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>2019</v>
       </c>
       <c r="G47">
-        <v>1.8974229060000001</v>
+        <v>1.3734987910000001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>1.3774697477621787</v>
+        <f>SQRT(G47)</f>
+        <v>1.1719636474737603</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,27 +1792,27 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="2"/>
-        <v>3-3</v>
+        <f>_xlfn.CONCAT(A48,"-",B48)</f>
+        <v>3-2</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="G48">
-        <v>3.5200752139999998</v>
+        <v>0.86652366199999997</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
-        <v>1.8761863484206465</v>
+        <f>SQRT(G48)</f>
+        <v>0.93087252725601477</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,27 +1820,27 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="2"/>
-        <v>4-1</v>
+        <f>_xlfn.CONCAT(A49,"-",B49)</f>
+        <v>4-8</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>2019</v>
       </c>
       <c r="G49">
-        <v>10.225810600000001</v>
+        <v>2.3261146739999998</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>3.1977821376697944</v>
+        <f>SQRT(G49)</f>
+        <v>1.5251605404022226</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1848,27 +1848,27 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="2"/>
-        <v>1-4</v>
+        <f>_xlfn.CONCAT(A50,"-",B50)</f>
+        <v>1-2</v>
       </c>
       <c r="D50" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>2020</v>
       </c>
       <c r="G50">
-        <v>0.52188444099999998</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
-        <v>0.72241569819599016</v>
+        <f>SQRT(G50)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1876,27 +1876,27 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="2"/>
-        <v>2-6</v>
+        <f>_xlfn.CONCAT(A51,"-",B51)</f>
+        <v>2-5</v>
       </c>
       <c r="D51" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>2020</v>
       </c>
       <c r="G51">
-        <v>0.131614602</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
-        <v>0.36278726824407714</v>
+        <f>SQRT(G51)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1904,27 +1904,27 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="2"/>
-        <v>3-6</v>
+        <f>_xlfn.CONCAT(A52,"-",B52)</f>
+        <v>3-2</v>
       </c>
       <c r="D52" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>2020</v>
       </c>
       <c r="G52">
-        <v>1.954715548</v>
+        <v>0.12894730099999999</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
-        <v>1.3981114218831059</v>
+        <f>SQRT(G52)</f>
+        <v>0.35909232935277241</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1932,27 +1932,27 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="2"/>
-        <v>4-4</v>
+        <f>_xlfn.CONCAT(A53,"-",B53)</f>
+        <v>4-8</v>
       </c>
       <c r="D53" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>2020</v>
       </c>
       <c r="G53">
-        <v>0.76909396399999996</v>
+        <v>0.64303110699999999</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
-        <v>0.87698002485803517</v>
+        <f>SQRT(G53)</f>
+        <v>0.80189220410227213</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1960,27 +1960,27 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="2"/>
-        <v>1-5</v>
+        <f>_xlfn.CONCAT(A54,"-",B54)</f>
+        <v>1-2</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G54">
-        <v>1.4093651E-2</v>
+        <v>0.15244126899999999</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
-        <v>0.11871668374748345</v>
+        <f>SQRT(G54)</f>
+        <v>0.39043727921396032</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1988,27 +1988,27 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
-        <v>2-3</v>
+        <f>_xlfn.CONCAT(A55,"-",B55)</f>
+        <v>2-5</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1.4135714000000001E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G55)</f>
+        <v>0.11889370883272168</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2016,27 +2016,27 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="2"/>
-        <v>3-4</v>
+        <f>_xlfn.CONCAT(A56,"-",B56)</f>
+        <v>3-2</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G56">
-        <v>0.48692317200000002</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
-        <v>0.69779880481410972</v>
+        <f>SQRT(G56)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2044,27 +2044,27 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="2"/>
-        <v>4-6</v>
+        <f>_xlfn.CONCAT(A57,"-",B57)</f>
+        <v>4-8</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G57">
-        <v>0.68734031500000004</v>
+        <v>0.576303487</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
-        <v>0.82905989831857141</v>
+        <f>SQRT(G57)</f>
+        <v>0.7591465517276621</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A58,"-",B58)</f>
         <v>1-2</v>
       </c>
       <c r="D58" t="s">
@@ -2085,14 +2085,14 @@
         <v>10</v>
       </c>
       <c r="F58">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.47629149833635759</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G58)</f>
+        <v>0.6901387529594013</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A59,"-",B59)</f>
         <v>2-5</v>
       </c>
       <c r="D59" t="s">
@@ -2113,14 +2113,14 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3.5251554511809333</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G59)</f>
+        <v>1.8775397335824702</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A60,"-",B60)</f>
         <v>3-2</v>
       </c>
       <c r="D60" t="s">
@@ -2141,14 +2141,14 @@
         <v>10</v>
       </c>
       <c r="F60">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G60">
-        <v>0.12894730099999999</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
-        <v>0.35909232935277241</v>
+        <f>SQRT(G60)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2159,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A61,"-",B61)</f>
         <v>4-8</v>
       </c>
       <c r="D61" t="s">
@@ -2169,14 +2169,14 @@
         <v>10</v>
       </c>
       <c r="F61">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G61">
-        <v>0.64303110699999999</v>
+        <v>3.6853638566230651</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
-        <v>0.80189220410227213</v>
+        <f>SQRT(G61)</f>
+        <v>1.9197301520325885</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A62,"-",B62)</f>
         <v>1-7</v>
       </c>
       <c r="D62" t="s">
@@ -2197,14 +2197,14 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>5.368438684</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G62)</f>
+        <v>2.316989141968516</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A63,"-",B63)</f>
         <v>2-7</v>
       </c>
       <c r="D63" t="s">
@@ -2225,14 +2225,14 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>5.4357703260000001</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G63)</f>
+        <v>2.3314738527377914</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A64,"-",B64)</f>
         <v>3-8</v>
       </c>
       <c r="D64" t="s">
@@ -2253,14 +2253,14 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3.4132060360000001</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SQRT(G64)</f>
+        <v>1.8474864102341864</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(A65,"-",B65)</f>
         <v>4-5</v>
       </c>
       <c r="D65" t="s">
@@ -2281,14 +2281,14 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G65">
-        <v>1.0622539E-2</v>
+        <v>5.7865807370000004</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
-        <v>0.10306570234563969</v>
+        <f>SQRT(G65)</f>
+        <v>2.4055312795721449</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2296,27 +2296,27 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="3">_xlfn.CONCAT(A66,"-",B66)</f>
-        <v>1-3</v>
+        <f>_xlfn.CONCAT(A66,"-",B66)</f>
+        <v>1-7</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G66">
-        <v>1.3480133329999999</v>
+        <v>1.241294331</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
-        <v>1.1610397637462724</v>
+        <f>SQRT(G66)</f>
+        <v>1.1141338927615478</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,27 +2324,27 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="3"/>
-        <v>2-8</v>
+        <f>_xlfn.CONCAT(A67,"-",B67)</f>
+        <v>2-7</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G67">
-        <v>1.0592266669999999</v>
+        <v>0.58032448999999997</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H121" si="4">SQRT(G67)</f>
-        <v>1.0291873818697934</v>
+        <f>SQRT(G67)</f>
+        <v>0.7617903189198455</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2352,27 +2352,27 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="3"/>
-        <v>3-7</v>
+        <f>_xlfn.CONCAT(A68,"-",B68)</f>
+        <v>3-8</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G68">
-        <v>3.8604622220000002</v>
+        <v>0.21572814300000001</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
-        <v>1.9648058993193196</v>
+        <f>SQRT(G68)</f>
+        <v>0.46446543789608286</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2380,27 +2380,27 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="3"/>
-        <v>4-2</v>
+        <f>_xlfn.CONCAT(A69,"-",B69)</f>
+        <v>4-5</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G69">
-        <v>3.6687688889999999</v>
+        <v>1.163825909</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
-        <v>1.915403061760109</v>
+        <f>SQRT(G69)</f>
+        <v>1.0788076329911649</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2408,27 +2408,27 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="3"/>
-        <v>1-1</v>
+        <f>_xlfn.CONCAT(A70,"-",B70)</f>
+        <v>1-7</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="G70">
-        <v>7.1084443999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
-        <v>0.26661666114479793</v>
+        <f>SQRT(G70)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2436,27 +2436,27 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="3"/>
-        <v>2-2</v>
+        <f>_xlfn.CONCAT(A71,"-",B71)</f>
+        <v>2-7</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>2020</v>
       </c>
       <c r="G71">
-        <v>0.13180444399999999</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
-        <v>0.36304881765404495</v>
+        <f>SQRT(G71)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2464,27 +2464,27 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="3"/>
-        <v>3-3</v>
+        <f>_xlfn.CONCAT(A72,"-",B72)</f>
+        <v>3-8</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>2020</v>
       </c>
       <c r="G72">
-        <v>0.81830222200000002</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
-        <v>0.90460058699958845</v>
+        <f>SQRT(G72)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2492,27 +2492,27 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="3"/>
-        <v>4-1</v>
+        <f>_xlfn.CONCAT(A73,"-",B73)</f>
+        <v>4-5</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>2020</v>
       </c>
       <c r="G73">
-        <v>0.194235556</v>
+        <v>1.0622539E-2</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
-        <v>0.44072163096448985</v>
+        <f>SQRT(G73)</f>
+        <v>0.10306570234563969</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2520,27 +2520,27 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="3"/>
-        <v>1-4</v>
+        <f>_xlfn.CONCAT(A74,"-",B74)</f>
+        <v>1-7</v>
       </c>
       <c r="D74" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>2021</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>9.3502856999999995E-2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G74)</f>
+        <v>0.30578236868727404</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2548,27 +2548,27 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="3"/>
-        <v>2-6</v>
+        <f>_xlfn.CONCAT(A75,"-",B75)</f>
+        <v>2-7</v>
       </c>
       <c r="D75" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>2021</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>8.0778094999999994E-2</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G75)</f>
+        <v>0.28421487469870399</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2576,27 +2576,27 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="3"/>
-        <v>3-6</v>
+        <f>_xlfn.CONCAT(A76,"-",B76)</f>
+        <v>3-8</v>
       </c>
       <c r="D76" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>2021</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>6.8023809999999997E-3</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G76)</f>
+        <v>8.247654818189229E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2604,27 +2604,27 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="3"/>
-        <v>4-4</v>
+        <f>_xlfn.CONCAT(A77,"-",B77)</f>
+        <v>4-5</v>
       </c>
       <c r="D77" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F77">
         <v>2021</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1.7809206000000001E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G77)</f>
+        <v>0.13345113712516654</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2632,27 +2632,27 @@
         <v>1</v>
       </c>
       <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="str">
+        <f>_xlfn.CONCAT(A78,"-",B78)</f>
+        <v>1-7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
         <v>5</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="3"/>
-        <v>1-5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
       <c r="F78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G78">
-        <v>2.4800316999999999E-2</v>
+        <v>0.13179369781268901</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
-        <v>0.15748116395302644</v>
+        <f>SQRT(G78)</f>
+        <v>0.36303401743182279</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2660,27 +2660,27 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="3"/>
-        <v>2-3</v>
+        <f>_xlfn.CONCAT(A79,"-",B79)</f>
+        <v>2-7</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3.4046264755904678</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G79)</f>
+        <v>1.8451629943152632</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,27 +2688,27 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="3"/>
-        <v>3-4</v>
+        <f>_xlfn.CONCAT(A80,"-",B80)</f>
+        <v>3-8</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>6.8420206089310431E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G80)</f>
+        <v>0.26157256371666815</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2716,27 +2716,27 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="3"/>
-        <v>4-6</v>
+        <f>_xlfn.CONCAT(A81,"-",B81)</f>
+        <v>4-5</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G81">
-        <v>1.1544603000000001E-2</v>
+        <v>3.3846240949782</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
-        <v>0.10744581425071896</v>
+        <f>SQRT(G81)</f>
+        <v>1.839734789304752</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2744,27 +2744,27 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="3"/>
-        <v>1-2</v>
+        <f>_xlfn.CONCAT(A82,"-",B82)</f>
+        <v>1-3</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F82">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G82">
-        <v>0.15244126899999999</v>
+        <v>4.8595555560000001</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
-        <v>0.39043727921396032</v>
+        <f>SQRT(G82)</f>
+        <v>2.20443996425396</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,27 +2772,27 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="3"/>
-        <v>2-5</v>
+        <f>_xlfn.CONCAT(A83,"-",B83)</f>
+        <v>2-8</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F83">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G83">
-        <v>1.4135714000000001E-2</v>
+        <v>3.2853333330000001</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
-        <v>0.11889370883272168</v>
+        <f>SQRT(G83)</f>
+        <v>1.8125488498244675</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,27 +2800,27 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="3"/>
-        <v>3-2</v>
+        <f>_xlfn.CONCAT(A84,"-",B84)</f>
+        <v>3-7</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2.341777778</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G84)</f>
+        <v>1.5302868286697104</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2828,27 +2828,27 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="3"/>
-        <v>4-8</v>
+        <f>_xlfn.CONCAT(A85,"-",B85)</f>
+        <v>4-2</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F85">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G85">
-        <v>0.576303487</v>
+        <v>7.7733333330000001</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
-        <v>0.7591465517276621</v>
+        <f>SQRT(G85)</f>
+        <v>2.7880698221170861</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2856,27 +2856,27 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="3"/>
-        <v>1-7</v>
+        <f>_xlfn.CONCAT(A86,"-",B86)</f>
+        <v>1-3</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F86">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G86">
-        <v>9.3502856999999995E-2</v>
+        <v>14.21424889</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
-        <v>0.30578236868727404</v>
+        <f>SQRT(G86)</f>
+        <v>3.7701788936335636</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2884,27 +2884,27 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="3"/>
-        <v>2-7</v>
+        <f>_xlfn.CONCAT(A87,"-",B87)</f>
+        <v>2-8</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F87">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G87">
-        <v>8.0778094999999994E-2</v>
+        <v>17.191533329999999</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
-        <v>0.28421487469870399</v>
+        <f>SQRT(G87)</f>
+        <v>4.1462673973105018</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2912,27 +2912,27 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="3"/>
-        <v>3-8</v>
+        <f>_xlfn.CONCAT(A88,"-",B88)</f>
+        <v>3-7</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F88">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G88">
-        <v>6.8023809999999997E-3</v>
+        <v>10.01391111</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
-        <v>8.247654818189229E-2</v>
+        <f>SQRT(G88)</f>
+        <v>3.1644764353681007</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2940,27 +2940,27 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="3"/>
-        <v>4-5</v>
+        <f>_xlfn.CONCAT(A89,"-",B89)</f>
+        <v>4-2</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G89">
-        <v>1.7809206000000001E-2</v>
+        <v>29.385400000000001</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
-        <v>0.13345113712516654</v>
+        <f>SQRT(G89)</f>
+        <v>5.4208301947211002</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A90,"-",B90)</f>
         <v>1-3</v>
       </c>
       <c r="D90" t="s">
@@ -2981,14 +2981,14 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G90">
-        <v>6.0768889E-2</v>
+        <v>1.3480133329999999</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
-        <v>0.2465134661636155</v>
+        <f>SQRT(G90)</f>
+        <v>1.1610397637462724</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A91,"-",B91)</f>
         <v>2-8</v>
       </c>
       <c r="D91" t="s">
@@ -3009,14 +3009,14 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G91">
-        <v>8.0275555999999998E-2</v>
+        <v>1.0592266669999999</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
-        <v>0.2833294125218912</v>
+        <f>SQRT(G91)</f>
+        <v>1.0291873818697934</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3027,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A92,"-",B92)</f>
         <v>3-7</v>
       </c>
       <c r="D92" t="s">
@@ -3037,14 +3037,14 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>3.8604622220000002</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G92)</f>
+        <v>1.9648058993193196</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A93,"-",B93)</f>
         <v>4-2</v>
       </c>
       <c r="D93" t="s">
@@ -3065,14 +3065,14 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G93">
-        <v>0.117137778</v>
+        <v>3.6687688889999999</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
-        <v>0.34225396710629957</v>
+        <f>SQRT(G93)</f>
+        <v>1.915403061760109</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3080,27 +3080,27 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="3"/>
-        <v>1-1</v>
+        <f>_xlfn.CONCAT(A94,"-",B94)</f>
+        <v>1-3</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F94">
         <v>2021</v>
       </c>
       <c r="G94">
-        <v>3.5011269999999997E-2</v>
+        <v>6.0768889E-2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
-        <v>0.18711298725636336</v>
+        <f>SQRT(G94)</f>
+        <v>0.2465134661636155</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3108,27 +3108,27 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="3"/>
-        <v>2-2</v>
+        <f>_xlfn.CONCAT(A95,"-",B95)</f>
+        <v>2-8</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F95">
         <v>2021</v>
       </c>
       <c r="G95">
-        <v>0.431309204</v>
+        <v>8.0275555999999998E-2</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
-        <v>0.6567413524364063</v>
+        <f>SQRT(G95)</f>
+        <v>0.2833294125218912</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3136,27 +3136,27 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="3"/>
-        <v>3-3</v>
+        <f>_xlfn.CONCAT(A96,"-",B96)</f>
+        <v>3-7</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F96">
         <v>2021</v>
       </c>
       <c r="G96">
-        <v>0.117591428</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
-        <v>0.34291606553207737</v>
+        <f>SQRT(G96)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3164,27 +3164,27 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="3"/>
-        <v>4-1</v>
+        <f>_xlfn.CONCAT(A97,"-",B97)</f>
+        <v>4-2</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F97">
         <v>2021</v>
       </c>
       <c r="G97">
-        <v>0.30764190299999999</v>
+        <v>0.117137778</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
-        <v>0.55465476018871418</v>
+        <f>SQRT(G97)</f>
+        <v>0.34225396710629957</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3192,27 +3192,27 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C121" si="5">_xlfn.CONCAT(A98,"-",B98)</f>
-        <v>1-4</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>26</v>
+        <f>_xlfn.CONCAT(A98,"-",B98)</f>
+        <v>1-3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F98">
         <v>2022</v>
       </c>
       <c r="G98">
-        <v>0.95429380306009204</v>
+        <v>0.95608711111111122</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
-        <v>0.97687962567559572</v>
+        <f>SQRT(G98)</f>
+        <v>0.97779707051673626</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3220,27 +3220,27 @@
         <v>2</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="5"/>
-        <v>2-6</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>26</v>
+        <f>_xlfn.CONCAT(A99,"-",B99)</f>
+        <v>2-8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F99">
         <v>2022</v>
       </c>
       <c r="G99">
-        <v>2.0784728958711366E-2</v>
+        <v>2.1874594444444444</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
-        <v>0.14416909848754472</v>
+        <f>SQRT(G99)</f>
+        <v>1.479006235431225</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3248,27 +3248,27 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
-        <v>3-6</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>26</v>
+        <f>_xlfn.CONCAT(A100,"-",B100)</f>
+        <v>3-7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F100">
         <v>2022</v>
       </c>
       <c r="G100">
-        <v>0.63309261644865988</v>
+        <v>1.4044393888888891</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
-        <v>0.79567117356899386</v>
+        <f>SQRT(G100)</f>
+        <v>1.1850904559943469</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3276,27 +3276,27 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="5"/>
-        <v>4-4</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>26</v>
+        <f>_xlfn.CONCAT(A101,"-",B101)</f>
+        <v>4-2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F101">
         <v>2022</v>
       </c>
       <c r="G101">
-        <v>1.1059600715682019</v>
+        <v>8.8270257777777772</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
-        <v>1.0516463624090571</v>
+        <f>SQRT(G101)</f>
+        <v>2.9710310967369185</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3304,27 +3304,27 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="5"/>
-        <v>1-5</v>
+        <f>_xlfn.CONCAT(A102,"-",B102)</f>
+        <v>1-1</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G102">
-        <v>1.9777587289587113</v>
+        <v>5.7671451400000002</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
-        <v>1.4063281014609326</v>
+        <f>SQRT(G102)</f>
+        <v>2.4014881094854501</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3332,27 +3332,27 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="5"/>
-        <v>2-3</v>
+        <f>_xlfn.CONCAT(A103,"-",B103)</f>
+        <v>2-2</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F103">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G103">
-        <v>3.9014842070856015</v>
+        <v>4.3316523980000001</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
-        <v>1.9752175088039297</v>
+        <f>SQRT(G103)</f>
+        <v>2.0812622126969011</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3360,27 +3360,27 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="5"/>
-        <v>3-4</v>
+        <f>_xlfn.CONCAT(A104,"-",B104)</f>
+        <v>3-3</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G104">
-        <v>0.8109487132461306</v>
+        <v>3.6104951070000002</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
-        <v>0.9005269086740999</v>
+        <f>SQRT(G104)</f>
+        <v>1.9001302868487731</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3388,27 +3388,27 @@
         <v>4</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="str">
+        <f>_xlfn.CONCAT(A105,"-",B105)</f>
+        <v>4-1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
         <v>6</v>
       </c>
-      <c r="C105" t="str">
-        <f t="shared" si="5"/>
-        <v>4-6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" t="s">
-        <v>12</v>
-      </c>
       <c r="F105">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G105">
-        <v>0.5261060608931043</v>
+        <v>8.6952770380000004</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
-        <v>0.72533169025839783</v>
+        <f>SQRT(G105)</f>
+        <v>2.9487755150231427</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3416,27 +3416,27 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="5"/>
-        <v>1-2</v>
+        <f>_xlfn.CONCAT(A106,"-",B106)</f>
+        <v>1-1</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G106">
-        <v>0.47629149833635759</v>
+        <v>3.8592588029999999</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
-        <v>0.6901387529594013</v>
+        <f>SQRT(G106)</f>
+        <v>1.9644996317128696</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3444,27 +3444,27 @@
         <v>2</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="5"/>
-        <v>2-5</v>
+        <f>_xlfn.CONCAT(A107,"-",B107)</f>
+        <v>2-2</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F107">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>3.5251554511809333</v>
+        <v>1.8974229060000001</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
-        <v>1.8775397335824702</v>
+        <f>SQRT(G107)</f>
+        <v>1.3774697477621787</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3472,27 +3472,27 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="5"/>
-        <v>3-2</v>
+        <f>_xlfn.CONCAT(A108,"-",B108)</f>
+        <v>3-3</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>3.5200752139999998</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SQRT(G108)</f>
+        <v>1.8761863484206465</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3500,27 +3500,27 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="5"/>
-        <v>4-8</v>
+        <f>_xlfn.CONCAT(A109,"-",B109)</f>
+        <v>4-1</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F109">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>3.6853638566230651</v>
+        <v>10.225810600000001</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
-        <v>1.9197301520325885</v>
+        <f>SQRT(G109)</f>
+        <v>3.1977821376697944</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3528,27 +3528,27 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="5"/>
-        <v>1-7</v>
+        <f>_xlfn.CONCAT(A110,"-",B110)</f>
+        <v>1-1</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G110">
-        <v>0.13179369781268901</v>
+        <v>7.1084443999999997E-2</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
-        <v>0.36303401743182279</v>
+        <f>SQRT(G110)</f>
+        <v>0.26661666114479793</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3556,27 +3556,27 @@
         <v>2</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="5"/>
-        <v>2-7</v>
+        <f>_xlfn.CONCAT(A111,"-",B111)</f>
+        <v>2-2</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F111">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G111">
-        <v>3.4046264755904678</v>
+        <v>0.13180444399999999</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
-        <v>1.8451629943152632</v>
+        <f>SQRT(G111)</f>
+        <v>0.36304881765404495</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3584,27 +3584,27 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="5"/>
-        <v>3-8</v>
+        <f>_xlfn.CONCAT(A112,"-",B112)</f>
+        <v>3-3</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G112">
-        <v>6.8420206089310431E-2</v>
+        <v>0.81830222200000002</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
-        <v>0.26157256371666815</v>
+        <f>SQRT(G112)</f>
+        <v>0.90460058699958845</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3612,27 +3612,27 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="5"/>
-        <v>4-5</v>
+        <f>_xlfn.CONCAT(A113,"-",B113)</f>
+        <v>4-1</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G113">
-        <v>3.3846240949782</v>
+        <v>0.194235556</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
-        <v>1.839734789304752</v>
+        <f>SQRT(G113)</f>
+        <v>0.44072163096448985</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3640,27 +3640,27 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="5"/>
-        <v>1-3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>25</v>
+        <f>_xlfn.CONCAT(A114,"-",B114)</f>
+        <v>1-1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F114">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G114">
-        <v>0.95608711111111122</v>
+        <v>3.5011269999999997E-2</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
-        <v>0.97779707051673626</v>
+        <f>SQRT(G114)</f>
+        <v>0.18711298725636336</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,27 +3668,27 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="5"/>
-        <v>2-8</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>25</v>
+        <f>_xlfn.CONCAT(A115,"-",B115)</f>
+        <v>2-2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F115">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G115">
-        <v>2.1874594444444444</v>
+        <v>0.431309204</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
-        <v>1.479006235431225</v>
+        <f>SQRT(G115)</f>
+        <v>0.6567413524364063</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3696,27 +3696,27 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="5"/>
-        <v>3-7</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>25</v>
+        <f>_xlfn.CONCAT(A116,"-",B116)</f>
+        <v>3-3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G116">
-        <v>1.4044393888888891</v>
+        <v>0.117591428</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
-        <v>1.1850904559943469</v>
+        <f>SQRT(G116)</f>
+        <v>0.34291606553207737</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3724,27 +3724,27 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="5"/>
-        <v>4-2</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>25</v>
+        <f>_xlfn.CONCAT(A117,"-",B117)</f>
+        <v>4-1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F117">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G117">
-        <v>8.8270257777777772</v>
+        <v>0.30764190299999999</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
-        <v>2.9710310967369185</v>
+        <f>SQRT(G117)</f>
+        <v>0.55465476018871418</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3755,11 +3755,11 @@
         <v>1</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A118,"-",B118)</f>
         <v>1-1</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>23</v>
+      <c r="D118" t="s">
+        <v>19</v>
       </c>
       <c r="E118" t="s">
         <v>6</v>
@@ -3771,7 +3771,7 @@
         <v>6.1109333333333342E-2</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
+        <f>SQRT(G118)</f>
         <v>0.24720302047777115</v>
       </c>
     </row>
@@ -3783,11 +3783,11 @@
         <v>2</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A119,"-",B119)</f>
         <v>2-2</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>23</v>
+      <c r="D119" t="s">
+        <v>19</v>
       </c>
       <c r="E119" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>0.14512391111111114</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
+        <f>SQRT(G119)</f>
         <v>0.38095132380805707</v>
       </c>
     </row>
@@ -3811,11 +3811,11 @@
         <v>3</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A120,"-",B120)</f>
         <v>3-3</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>23</v>
+      <c r="D120" t="s">
+        <v>19</v>
       </c>
       <c r="E120" t="s">
         <v>6</v>
@@ -3827,7 +3827,7 @@
         <v>3.6109161666666667</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
+        <f>SQRT(G120)</f>
         <v>1.9002410811964536</v>
       </c>
     </row>
@@ -3839,11 +3839,11 @@
         <v>1</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A121,"-",B121)</f>
         <v>4-1</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>23</v>
+      <c r="D121" t="s">
+        <v>19</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -3855,7 +3855,7 @@
         <v>3.9745529666666681</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
+        <f>SQRT(G121)</f>
         <v>1.9936280913617435</v>
       </c>
     </row>
@@ -3884,8 +3884,8 @@
       <c r="D129" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G130">
-    <sortCondition ref="F2:F130"/>
+  <sortState ref="A2:H121">
+    <sortCondition ref="D2:D121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
